--- a/Testdata/Objectrepo/objectrepo.xlsx
+++ b/Testdata/Objectrepo/objectrepo.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Testdata/Objectrepo/objectrepo.xlsx
+++ b/Testdata/Objectrepo/objectrepo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t xml:space="preserve">pagename</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t xml:space="preserve">1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[@id='topTabAdmin']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_edit_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//a[text()='Add/Change/Remove Users']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//td[text()="User Name"]/parent::tr/td[2]/input</t>
   </si>
 </sst>
 </file>
@@ -59,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,6 +107,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -146,7 +170,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,6 +188,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,10 +272,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -297,31 +325,61 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -329,7 +387,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -337,7 +395,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -345,7 +403,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -353,7 +411,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -361,13 +419,29 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Testdata/Objectrepo/objectrepo.xlsx
+++ b/Testdata/Objectrepo/objectrepo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="7770" tabRatio="500"/>
+    <workbookView windowWidth="13725" windowHeight="12945" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>pagename</t>
   </si>
@@ -69,66 +69,6 @@
   </si>
   <si>
     <t>//a[@id="topTabFT"]</t>
-  </si>
-  <si>
-    <t>maintain_batch_template</t>
-  </si>
-  <si>
-    <t>//a[text()="Maintain Batch Template"]</t>
-  </si>
-  <si>
-    <t>add_new</t>
-  </si>
-  <si>
-    <t>//a[@id="addNewButton"]</t>
-  </si>
-  <si>
-    <t>template_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //input[@name='tname']</t>
-  </si>
-  <si>
-    <t>template_desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> //input[@name='tdesc']</t>
-  </si>
-  <si>
-    <t>ACH_batch_class</t>
-  </si>
-  <si>
-    <t>//select[@name='batchClass']</t>
-  </si>
-  <si>
-    <t>ACH_batch_class_option</t>
-  </si>
-  <si>
-    <t>//select[@name='batchClass']/option[@value="PPD"]</t>
-  </si>
-  <si>
-    <t>ACH_ID</t>
-  </si>
-  <si>
-    <t>//select[@name='achid']</t>
-  </si>
-  <si>
-    <t>ACH_ID_option</t>
-  </si>
-  <si>
-    <t>//select[@name='achid']/option[@value="TESTID"]</t>
-  </si>
-  <si>
-    <t>Create_offsetting_transaction</t>
-  </si>
-  <si>
-    <t>//input[@name='offsetTrans']</t>
-  </si>
-  <si>
-    <t>add_button</t>
-  </si>
-  <si>
-    <t>//a[@id='addButton']</t>
   </si>
 </sst>
 </file>
@@ -136,9 +76,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -162,23 +102,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,15 +122,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,44 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -268,16 +215,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,21 +238,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,11 +482,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,15 +517,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,17 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,138 +582,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A7" sqref="$A7:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1304,194 +1244,17 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3"/>
+    <row r="7" spans="2:3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3"/>
+    <row r="8" spans="2:3">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
     </row>
-    <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
+    <row r="9" spans="2:3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Testdata/Objectrepo/objectrepo.xlsx
+++ b/Testdata/Objectrepo/objectrepo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>pagename</t>
   </si>
@@ -69,6 +69,66 @@
   </si>
   <si>
     <t>//a[@id="topTabFT"]</t>
+  </si>
+  <si>
+    <t>maintain_batch_template</t>
+  </si>
+  <si>
+    <t>//a[text()="Maintain Batch Template"]</t>
+  </si>
+  <si>
+    <t>add_new</t>
+  </si>
+  <si>
+    <t>//a[@id="addNewButton"]</t>
+  </si>
+  <si>
+    <t>template_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //input[@name='tname']</t>
+  </si>
+  <si>
+    <t>template_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //input[@name='tdesc']</t>
+  </si>
+  <si>
+    <t>ACH_batch_class</t>
+  </si>
+  <si>
+    <t>//select[@name='batchClass']</t>
+  </si>
+  <si>
+    <t>ACH_batch_class_option</t>
+  </si>
+  <si>
+    <t>//select[@name='batchClass']/option[@value="PPD"]</t>
+  </si>
+  <si>
+    <t>ACH_ID</t>
+  </si>
+  <si>
+    <t>//select[@name='achid']</t>
+  </si>
+  <si>
+    <t>ACH_ID_option</t>
+  </si>
+  <si>
+    <t>//select[@name='achid']/option[@value="TESTID"]</t>
+  </si>
+  <si>
+    <t>Create_offsetting_transaction</t>
+  </si>
+  <si>
+    <t>//input[@name='offsetTrans']</t>
+  </si>
+  <si>
+    <t>add_button</t>
+  </si>
+  <si>
+    <t>//a[@id='addButton']</t>
   </si>
 </sst>
 </file>
@@ -77,9 +137,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -100,20 +160,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,6 +167,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -128,8 +204,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,47 +236,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,46 +281,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,13 +333,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,67 +483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,97 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,25 +543,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +572,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -536,17 +596,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +610,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,150 +639,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1244,17 +1304,200 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Testdata/Objectrepo/objectrepo.xlsx
+++ b/Testdata/Objectrepo/objectrepo.xlsx
@@ -86,13 +86,13 @@
     <t>template_name</t>
   </si>
   <si>
-    <t xml:space="preserve"> //input[@name='tname']</t>
+    <t>//input[@name='tname']</t>
   </si>
   <si>
     <t>template_desc</t>
   </si>
   <si>
-    <t xml:space="preserve"> //input[@name='tdesc']</t>
+    <t>//input[@name='tdesc']</t>
   </si>
   <si>
     <t>ACH_batch_class</t>
@@ -136,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -160,6 +160,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -167,54 +175,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +236,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -281,6 +266,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -288,31 +281,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,25 +333,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,13 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,139 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,15 +599,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -639,141 +630,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54285714285714" defaultRowHeight="15" outlineLevelCol="5"/>

--- a/Testdata/Objectrepo/objectrepo.xlsx
+++ b/Testdata/Objectrepo/objectrepo.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b933e8baf6cc6978/Desktop/Mani/Project/BB_Automation/Testdata/Objectrepo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_A249058A7911B9CB2F3FCFB5C7B2DEC2DF84902E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{227CF6DC-5A3B-4708-A90F-F9EF46DE1293}"/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12945" tabRatio="500"/>
+    <workbookView xWindow="5556" yWindow="3072" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>pagename</t>
   </si>
@@ -129,19 +134,46 @@
   </si>
   <si>
     <t>//a[@id='addButton']</t>
+  </si>
+  <si>
+    <t>EmailLink</t>
+  </si>
+  <si>
+    <t>(//a[text()='Email'])[1]</t>
+  </si>
+  <si>
+    <t>Emailpage</t>
+  </si>
+  <si>
+    <t>Preferred_Method_of_Contact</t>
+  </si>
+  <si>
+    <t>(//td[@id='columnHeadingText5']/parent::tr//input)[3]</t>
+  </si>
+  <si>
+    <t>(//td[@id='columnHeadingText6']/parent::tr//input)</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>(//td[@id='columnHeadingText7']/parent::tr//textarea)</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>//a[@id='submitButton']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -161,164 +193,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,194 +207,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -541,241 +231,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -793,57 +251,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -916,6 +327,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1173,27 +587,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.0190476190476" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6095238095238" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.8190476190476" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.53333333333333" style="1"/>
-    <col min="1023" max="1024" width="9.14285714285714" customWidth="1"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="1"/>
+    <col min="1023" max="1024" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1286,7 +700,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1304,7 +718,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +736,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1340,7 +754,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customFormat="1" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1358,7 +772,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1376,7 +790,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customFormat="1" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +808,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1412,7 +826,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1430,7 +844,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" customFormat="1" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1448,7 +862,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1465,7 +879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1499,9 +913,93 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Testdata/Objectrepo/objectrepo.xlsx
+++ b/Testdata/Objectrepo/objectrepo.xlsx
@@ -2,24 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13725" windowHeight="12945" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
   <si>
     <t>pagename</t>
   </si>
@@ -51,6 +46,90 @@
     <t>1s</t>
   </si>
   <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>//a[@id='topTabAdmin']</t>
+  </si>
+  <si>
+    <t>add_edit_user</t>
+  </si>
+  <si>
+    <t>//a[text()='Add/Change/Remove Users']</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>//td[text()="User Name"]/parent::tr/td[2]/input</t>
+  </si>
+  <si>
+    <t>payments_transfers</t>
+  </si>
+  <si>
+    <t>//a[@id="topTabFT"]</t>
+  </si>
+  <si>
+    <t>maintain_batch_template</t>
+  </si>
+  <si>
+    <t>//a[text()="Maintain Batch Template"]</t>
+  </si>
+  <si>
+    <t>add_new</t>
+  </si>
+  <si>
+    <t>//a[@id="addNewButton"]</t>
+  </si>
+  <si>
+    <t>template_name</t>
+  </si>
+  <si>
+    <t>//input[@name='tname']</t>
+  </si>
+  <si>
+    <t>template_desc</t>
+  </si>
+  <si>
+    <t>//input[@name='tdesc']</t>
+  </si>
+  <si>
+    <t>ACH_batch_class</t>
+  </si>
+  <si>
+    <t>//select[@name='batchClass']</t>
+  </si>
+  <si>
+    <t>ACH_batch_class_option</t>
+  </si>
+  <si>
+    <t>//select[@name='batchClass']/option[@value="PPD"]</t>
+  </si>
+  <si>
+    <t>ACH_ID</t>
+  </si>
+  <si>
+    <t>//select[@name='achid']</t>
+  </si>
+  <si>
+    <t>ACH_ID_option</t>
+  </si>
+  <si>
+    <t>//select[@name='achid']/option[@value="TESTID"]</t>
+  </si>
+  <si>
+    <t>Create_offsetting_transaction</t>
+  </si>
+  <si>
+    <t>//input[@name='offsetTrans']</t>
+  </si>
+  <si>
+    <t>add_button</t>
+  </si>
+  <si>
+    <t>//a[@id='addButton']</t>
+  </si>
+  <si>
     <t>Account activities and reporting</t>
   </si>
   <si>
@@ -61,22 +140,69 @@
   </si>
   <si>
     <t>//a[text()='Create Reports']</t>
+  </si>
+  <si>
+    <t>//input[@id='repname']</t>
+  </si>
+  <si>
+    <t>//input[@name='reptitle']</t>
+  </si>
+  <si>
+    <t>Report Name</t>
+  </si>
+  <si>
+    <t>Report Title</t>
+  </si>
+  <si>
+    <t>//a[@id='buttonAdd']</t>
+  </si>
+  <si>
+    <t>//a[@id='buttonDelete']</t>
+  </si>
+  <si>
+    <t>Add Report</t>
+  </si>
+  <si>
+    <t>Delete Report</t>
+  </si>
+  <si>
+    <t>Delete_Message_Window</t>
+  </si>
+  <si>
+    <t>//span[text()='Delete']//ancestor::button</t>
+  </si>
+  <si>
+    <t>//a[text()='Log Out']</t>
+  </si>
+  <si>
+    <t>Log Out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -98,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -149,37 +275,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -191,98 +292,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF6D"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF6D"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -297,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -307,39 +420,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,6 +484,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -405,6 +519,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,160 +531,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -581,17 +667,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="16" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="1"/>
@@ -599,135 +685,448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="30.6" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="25.35" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="28.35" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="29.85" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="23.85" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>